--- a/INITIAL_DATA/Tariff/Raskrytie_informatsii_03_2021_3_TSK.xlsx
+++ b/INITIAL_DATA/Tariff/Raskrytie_informatsii_03_2021_3_TSK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tovstyuk\Desktop\Мониторинг филиалы\Разное по расчетам\Работа по цене\для сайта\Раскрытие информации 2021\Раскрытие информации март\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0386e48cebf3007/Документы/GitHub/Local_Control_system/INITIAL_DATA/Tariff/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2438BE15FFBE20DB3F6A88BAA61CB528EC4DD354" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="24720" windowHeight="12225" tabRatio="966"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="966" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 ЦК" sheetId="21" r:id="rId1"/>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -389,12 +390,15 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -402,18 +406,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 2 2 2" xfId="4"/>
-    <cellStyle name="Обычный 2 3" xfId="5"/>
-    <cellStyle name="㼿㼿?" xfId="1"/>
-    <cellStyle name="㼿㼿㼿㼿? 2" xfId="6"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="㼿㼿?" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="㼿㼿㼿㼿? 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,6 +505,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -714,87 +749,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y2"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="U285" sqref="U285:V285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="7.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="25" width="7.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-    </row>
-    <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="4" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
@@ -803,32 +838,32 @@
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
@@ -3296,32 +3331,32 @@
       <c r="A40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
@@ -5789,32 +5824,32 @@
       <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
@@ -8282,32 +8317,32 @@
       <c r="A108" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
-      <c r="Y108" s="9"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+      <c r="R108" s="11"/>
+      <c r="S108" s="11"/>
+      <c r="T108" s="11"/>
+      <c r="U108" s="11"/>
+      <c r="V108" s="11"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="11"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
@@ -10771,7 +10806,7 @@
         <v>6430.18</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>31</v>
       </c>
@@ -10789,17 +10824,17 @@
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
-      <c r="U143" s="13">
+      <c r="U143" s="9">
         <v>850254.92</v>
       </c>
-      <c r="V143" s="13"/>
-    </row>
-    <row r="146" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V143" s="9"/>
+    </row>
+    <row r="146" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>26</v>
       </c>
@@ -10808,32 +10843,32 @@
       <c r="A148" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="9"/>
-      <c r="S148" s="9"/>
-      <c r="T148" s="9"/>
-      <c r="U148" s="9"/>
-      <c r="V148" s="9"/>
-      <c r="W148" s="9"/>
-      <c r="X148" s="9"/>
-      <c r="Y148" s="9"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
+      <c r="U148" s="11"/>
+      <c r="V148" s="11"/>
+      <c r="W148" s="11"/>
+      <c r="X148" s="11"/>
+      <c r="Y148" s="11"/>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
@@ -13301,32 +13336,32 @@
       <c r="A182" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9"/>
-      <c r="J182" s="9"/>
-      <c r="K182" s="9"/>
-      <c r="L182" s="9"/>
-      <c r="M182" s="9"/>
-      <c r="N182" s="9"/>
-      <c r="O182" s="9"/>
-      <c r="P182" s="9"/>
-      <c r="Q182" s="9"/>
-      <c r="R182" s="9"/>
-      <c r="S182" s="9"/>
-      <c r="T182" s="9"/>
-      <c r="U182" s="9"/>
-      <c r="V182" s="9"/>
-      <c r="W182" s="9"/>
-      <c r="X182" s="9"/>
-      <c r="Y182" s="9"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+      <c r="M182" s="11"/>
+      <c r="N182" s="11"/>
+      <c r="O182" s="11"/>
+      <c r="P182" s="11"/>
+      <c r="Q182" s="11"/>
+      <c r="R182" s="11"/>
+      <c r="S182" s="11"/>
+      <c r="T182" s="11"/>
+      <c r="U182" s="11"/>
+      <c r="V182" s="11"/>
+      <c r="W182" s="11"/>
+      <c r="X182" s="11"/>
+      <c r="Y182" s="11"/>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
@@ -15794,32 +15829,32 @@
       <c r="A216" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
-      <c r="K216" s="9"/>
-      <c r="L216" s="9"/>
-      <c r="M216" s="9"/>
-      <c r="N216" s="9"/>
-      <c r="O216" s="9"/>
-      <c r="P216" s="9"/>
-      <c r="Q216" s="9"/>
-      <c r="R216" s="9"/>
-      <c r="S216" s="9"/>
-      <c r="T216" s="9"/>
-      <c r="U216" s="9"/>
-      <c r="V216" s="9"/>
-      <c r="W216" s="9"/>
-      <c r="X216" s="9"/>
-      <c r="Y216" s="9"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="11"/>
+      <c r="O216" s="11"/>
+      <c r="P216" s="11"/>
+      <c r="Q216" s="11"/>
+      <c r="R216" s="11"/>
+      <c r="S216" s="11"/>
+      <c r="T216" s="11"/>
+      <c r="U216" s="11"/>
+      <c r="V216" s="11"/>
+      <c r="W216" s="11"/>
+      <c r="X216" s="11"/>
+      <c r="Y216" s="11"/>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
@@ -18287,32 +18322,32 @@
       <c r="A250" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="9"/>
-      <c r="F250" s="9"/>
-      <c r="G250" s="9"/>
-      <c r="H250" s="9"/>
-      <c r="I250" s="9"/>
-      <c r="J250" s="9"/>
-      <c r="K250" s="9"/>
-      <c r="L250" s="9"/>
-      <c r="M250" s="9"/>
-      <c r="N250" s="9"/>
-      <c r="O250" s="9"/>
-      <c r="P250" s="9"/>
-      <c r="Q250" s="9"/>
-      <c r="R250" s="9"/>
-      <c r="S250" s="9"/>
-      <c r="T250" s="9"/>
-      <c r="U250" s="9"/>
-      <c r="V250" s="9"/>
-      <c r="W250" s="9"/>
-      <c r="X250" s="9"/>
-      <c r="Y250" s="9"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="11"/>
+      <c r="L250" s="11"/>
+      <c r="M250" s="11"/>
+      <c r="N250" s="11"/>
+      <c r="O250" s="11"/>
+      <c r="P250" s="11"/>
+      <c r="Q250" s="11"/>
+      <c r="R250" s="11"/>
+      <c r="S250" s="11"/>
+      <c r="T250" s="11"/>
+      <c r="U250" s="11"/>
+      <c r="V250" s="11"/>
+      <c r="W250" s="11"/>
+      <c r="X250" s="11"/>
+      <c r="Y250" s="11"/>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
@@ -20776,7 +20811,7 @@
         <v>6167.7119999999995</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>31</v>
       </c>
@@ -20794,17 +20829,17 @@
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
-      <c r="U285" s="13">
+      <c r="U285" s="9">
         <v>850254.92</v>
       </c>
-      <c r="V285" s="13"/>
-    </row>
-    <row r="288" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="V285" s="9"/>
+    </row>
+    <row r="288" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:25" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
         <v>26</v>
       </c>
@@ -20813,32 +20848,32 @@
       <c r="A290" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9"/>
-      <c r="E290" s="9"/>
-      <c r="F290" s="9"/>
-      <c r="G290" s="9"/>
-      <c r="H290" s="9"/>
-      <c r="I290" s="9"/>
-      <c r="J290" s="9"/>
-      <c r="K290" s="9"/>
-      <c r="L290" s="9"/>
-      <c r="M290" s="9"/>
-      <c r="N290" s="9"/>
-      <c r="O290" s="9"/>
-      <c r="P290" s="9"/>
-      <c r="Q290" s="9"/>
-      <c r="R290" s="9"/>
-      <c r="S290" s="9"/>
-      <c r="T290" s="9"/>
-      <c r="U290" s="9"/>
-      <c r="V290" s="9"/>
-      <c r="W290" s="9"/>
-      <c r="X290" s="9"/>
-      <c r="Y290" s="9"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="11"/>
+      <c r="S290" s="11"/>
+      <c r="T290" s="11"/>
+      <c r="U290" s="11"/>
+      <c r="V290" s="11"/>
+      <c r="W290" s="11"/>
+      <c r="X290" s="11"/>
+      <c r="Y290" s="11"/>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
@@ -23306,32 +23341,32 @@
       <c r="A324" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C324" s="9"/>
-      <c r="D324" s="9"/>
-      <c r="E324" s="9"/>
-      <c r="F324" s="9"/>
-      <c r="G324" s="9"/>
-      <c r="H324" s="9"/>
-      <c r="I324" s="9"/>
-      <c r="J324" s="9"/>
-      <c r="K324" s="9"/>
-      <c r="L324" s="9"/>
-      <c r="M324" s="9"/>
-      <c r="N324" s="9"/>
-      <c r="O324" s="9"/>
-      <c r="P324" s="9"/>
-      <c r="Q324" s="9"/>
-      <c r="R324" s="9"/>
-      <c r="S324" s="9"/>
-      <c r="T324" s="9"/>
-      <c r="U324" s="9"/>
-      <c r="V324" s="9"/>
-      <c r="W324" s="9"/>
-      <c r="X324" s="9"/>
-      <c r="Y324" s="9"/>
+      <c r="C324" s="11"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="11"/>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="11"/>
+      <c r="M324" s="11"/>
+      <c r="N324" s="11"/>
+      <c r="O324" s="11"/>
+      <c r="P324" s="11"/>
+      <c r="Q324" s="11"/>
+      <c r="R324" s="11"/>
+      <c r="S324" s="11"/>
+      <c r="T324" s="11"/>
+      <c r="U324" s="11"/>
+      <c r="V324" s="11"/>
+      <c r="W324" s="11"/>
+      <c r="X324" s="11"/>
+      <c r="Y324" s="11"/>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325" s="10"/>
@@ -25799,32 +25834,32 @@
       <c r="A358" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C358" s="9"/>
-      <c r="D358" s="9"/>
-      <c r="E358" s="9"/>
-      <c r="F358" s="9"/>
-      <c r="G358" s="9"/>
-      <c r="H358" s="9"/>
-      <c r="I358" s="9"/>
-      <c r="J358" s="9"/>
-      <c r="K358" s="9"/>
-      <c r="L358" s="9"/>
-      <c r="M358" s="9"/>
-      <c r="N358" s="9"/>
-      <c r="O358" s="9"/>
-      <c r="P358" s="9"/>
-      <c r="Q358" s="9"/>
-      <c r="R358" s="9"/>
-      <c r="S358" s="9"/>
-      <c r="T358" s="9"/>
-      <c r="U358" s="9"/>
-      <c r="V358" s="9"/>
-      <c r="W358" s="9"/>
-      <c r="X358" s="9"/>
-      <c r="Y358" s="9"/>
+      <c r="C358" s="11"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="11"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="11"/>
+      <c r="I358" s="11"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="11"/>
+      <c r="L358" s="11"/>
+      <c r="M358" s="11"/>
+      <c r="N358" s="11"/>
+      <c r="O358" s="11"/>
+      <c r="P358" s="11"/>
+      <c r="Q358" s="11"/>
+      <c r="R358" s="11"/>
+      <c r="S358" s="11"/>
+      <c r="T358" s="11"/>
+      <c r="U358" s="11"/>
+      <c r="V358" s="11"/>
+      <c r="W358" s="11"/>
+      <c r="X358" s="11"/>
+      <c r="Y358" s="11"/>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359" s="10"/>
@@ -28292,32 +28327,32 @@
       <c r="A392" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C392" s="9"/>
-      <c r="D392" s="9"/>
-      <c r="E392" s="9"/>
-      <c r="F392" s="9"/>
-      <c r="G392" s="9"/>
-      <c r="H392" s="9"/>
-      <c r="I392" s="9"/>
-      <c r="J392" s="9"/>
-      <c r="K392" s="9"/>
-      <c r="L392" s="9"/>
-      <c r="M392" s="9"/>
-      <c r="N392" s="9"/>
-      <c r="O392" s="9"/>
-      <c r="P392" s="9"/>
-      <c r="Q392" s="9"/>
-      <c r="R392" s="9"/>
-      <c r="S392" s="9"/>
-      <c r="T392" s="9"/>
-      <c r="U392" s="9"/>
-      <c r="V392" s="9"/>
-      <c r="W392" s="9"/>
-      <c r="X392" s="9"/>
-      <c r="Y392" s="9"/>
+      <c r="C392" s="11"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="11"/>
+      <c r="F392" s="11"/>
+      <c r="G392" s="11"/>
+      <c r="H392" s="11"/>
+      <c r="I392" s="11"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="11"/>
+      <c r="L392" s="11"/>
+      <c r="M392" s="11"/>
+      <c r="N392" s="11"/>
+      <c r="O392" s="11"/>
+      <c r="P392" s="11"/>
+      <c r="Q392" s="11"/>
+      <c r="R392" s="11"/>
+      <c r="S392" s="11"/>
+      <c r="T392" s="11"/>
+      <c r="U392" s="11"/>
+      <c r="V392" s="11"/>
+      <c r="W392" s="11"/>
+      <c r="X392" s="11"/>
+      <c r="Y392" s="11"/>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="10"/>
@@ -30781,7 +30816,7 @@
         <v>6154.5219999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>31</v>
       </c>
@@ -30799,13 +30834,34 @@
       <c r="M427" s="2"/>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
-      <c r="U427" s="13">
+      <c r="U427" s="9">
         <v>850254.92</v>
       </c>
-      <c r="V427" s="13"/>
+      <c r="V427" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:Y2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:Y40"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:Y74"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:Y108"/>
+    <mergeCell ref="U143:V143"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:Y148"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:Y182"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:Y216"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:Y250"/>
+    <mergeCell ref="U285:V285"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="B290:Y290"/>
     <mergeCell ref="U427:V427"/>
     <mergeCell ref="A324:A325"/>
     <mergeCell ref="B324:Y324"/>
@@ -30813,27 +30869,6 @@
     <mergeCell ref="B358:Y358"/>
     <mergeCell ref="A392:A393"/>
     <mergeCell ref="B392:Y392"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:Y250"/>
-    <mergeCell ref="U285:V285"/>
-    <mergeCell ref="A290:A291"/>
-    <mergeCell ref="B290:Y290"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:Y148"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:Y182"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:Y216"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:Y74"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:Y108"/>
-    <mergeCell ref="U143:V143"/>
-    <mergeCell ref="A1:Y2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:Y40"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.55118110236220474" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="20" orientation="landscape" r:id="rId1"/>
